--- a/va_facility_data_2025-02-20/Fayetteville VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Fayetteville%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fayetteville VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Fayetteville%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R590221b7dce74a94be08fcf2181c71e5"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R7ba9a82cc9964e4e8986a58587372271"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Ra28251ba9c2442b8bd054db26c003044"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rcf4228c5512348758ebcc5109d9b95bb"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R2f6c04a86de14f0a89bd8e2c1a149c86"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R5097cbbf9877461086bde3a08cb6187b"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R6725b22bf6c1475a934f3d3eaed1e5ec"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R0dc44fc2e5b34fbc8b230c5f86475452"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R8bfaed84f4fa40f49b91d221320d994d"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R0ed1b3a4df644feab6357374fcd71858"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R58a20d5cb0e94894add77c54ba39bb0d"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rbdf189a322804af99022db729c746cbf"/>
   </x:sheets>
 </x:workbook>
 </file>
